--- a/resultOfExample4-1.xlsx
+++ b/resultOfExample4-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kushidatatsuya/Downloads/sample2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82FF421-A29F-8641-8A32-4491A85C15A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6D3922-2DFB-7E41-BF7B-19362A77E9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28300" yWindow="1700" windowWidth="28300" windowHeight="17440" xr2:uid="{A1ABE869-7BCC-4B40-ACF9-ACECCDE5EFCA}"/>
   </bookViews>
@@ -902,7 +902,7 @@
   <dimension ref="A1:H1363"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H2" sqref="H2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
